--- a/medicine/Handicap/Roméo_Onze/Roméo_Onze.xlsx
+++ b/medicine/Handicap/Roméo_Onze/Roméo_Onze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rom%C3%A9o_Onze</t>
+          <t>Roméo_Onze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roméo Onze est un film québécois réalisé par Ivan Grbovic, sorti en 2011.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rom%C3%A9o_Onze</t>
+          <t>Roméo_Onze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rami, un jeune collégien handicapé d'origine libanaise à Montréal, vit sous le joug d'un père autoritaire qui le pousse à trouver une épouse. Mais Rami est un homme timide qui arrive difficilement à se lier d'amitié. Il préfère l'anonymat de la toile et s'est inventé un avatar pour contacter des femmes en se faisant passer pour un riche homme d'affaires dont le nom sur le chat est Roméo11. Piégé par ses propres mensonges, il se voit un jour contraint de donner un rendez-vous sentimental à une inconnue dans un hôtel luxueux.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rom%C3%A9o_Onze</t>
+          <t>Roméo_Onze</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Roméo Onze
 Réalisation : Ivan Grbovic
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rom%C3%A9o_Onze</t>
+          <t>Roméo_Onze</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ali Ammar : Rami
 Joseph Bou Nassar : Ziad
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rom%C3%A9o_Onze</t>
+          <t>Roméo_Onze</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,14 +659,53 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Prix
-Mention au Festival international du film de Karlovy Vary en juillet 2011
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mention au Festival international du film de Karlovy Vary en juillet 2011
 Prix découverte au Festival international du film francophone de Namur en octobre 2011
 Prix des valeurs humaines au Festival international du film de Thessalonique 2011
 Prix du Festival du nouveau cinéma de Montréal 2011
-Grand Prix du jury au Festival international du premier film d'Annonay en février 2012
-Nominations
-15e soirée des prix Jutra :
+Grand Prix du jury au Festival international du premier film d'Annonay en février 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roméo_Onze</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rom%C3%A9o_Onze</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et nominations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15e soirée des prix Jutra :
 Meilleur film
 Meilleure réalisation pour Ivan Grbovic
 Meilleur acteur pour Ali Ammar
